--- a/src/main/resources/static/files/qianren.xlsx
+++ b/src/main/resources/static/files/qianren.xlsx
@@ -4,11 +4,11 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView windowWidth="23040" windowHeight="9465" tabRatio="348"/>
+    <workbookView windowHeight="18015" tabRatio="348"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="格式说明" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
@@ -303,10 +303,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -323,13 +323,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -337,7 +330,37 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -359,22 +382,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -406,17 +421,9 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -436,8 +443,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -445,22 +453,14 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -481,13 +481,121 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -499,169 +607,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -693,56 +693,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="medium">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -787,6 +739,54 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -795,10 +795,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="21" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -807,133 +807,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="19" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="19" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="22" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="12" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1334,10 +1334,10 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:U2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="U1" sqref="U1"/>
+      <selection pane="bottomLeft" activeCell="D54" sqref="D54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1"/>
@@ -1505,8 +1505,8 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:U41"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="U1" sqref="U1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J25" sqref="J25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1514,6 +1514,7 @@
     <col min="1" max="2" width="13.75" customWidth="1"/>
     <col min="8" max="9" width="10.375"/>
     <col min="18" max="18" width="9.375"/>
+    <col min="19" max="19" width="12.625" customWidth="1"/>
     <col min="20" max="20" width="9.375"/>
     <col min="21" max="21" width="22.75" customWidth="1"/>
   </cols>

--- a/src/main/resources/static/files/qianren.xlsx
+++ b/src/main/resources/static/files/qianren.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView windowHeight="18015" tabRatio="348"/>
+    <workbookView windowHeight="18015" tabRatio="348" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -119,7 +119,8 @@
     <t>数值</t>
   </si>
   <si>
-    <t>短日期格式</t>
+    <t>短日期格式
+例如</t>
   </si>
   <si>
     <t>限定如下字段且(共享运营商)包含(结算运营商)</t>
@@ -136,7 +137,8 @@
 例如</t>
   </si>
   <si>
-    <t>区域-结算运营商-开票时间-自定义序号(三位数字)</t>
+    <t>区域-结算运营商-开票时间-自定义序号(三位数字)
+例如</t>
   </si>
   <si>
     <t>巴南</t>
@@ -303,9 +305,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
@@ -322,45 +324,9 @@
       <charset val="0"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -382,14 +348,36 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -419,9 +407,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -453,7 +448,14 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -481,13 +483,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -499,19 +525,115 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -523,145 +645,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -686,6 +688,21 @@
       </top>
       <bottom style="thin">
         <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -714,17 +731,41 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -748,45 +789,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -795,10 +797,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -807,133 +809,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="19" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="22" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="24" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1334,7 +1336,7 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:U2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection/>
       <selection pane="bottomLeft" activeCell="D54" sqref="D54"/>
@@ -1505,8 +1507,8 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:U41"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J25" sqref="J25"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="U8" sqref="U8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>

--- a/src/main/resources/static/files/qianren.xlsx
+++ b/src/main/resources/static/files/qianren.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView windowHeight="18015" tabRatio="348" activeTab="1"/>
+    <workbookView windowHeight="18015" tabRatio="348"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -137,7 +137,7 @@
 例如</t>
   </si>
   <si>
-    <t>区域-结算运营商-开票时间-自定义序号(三位数字)
+    <t>区域-结算运营商-制表时间-自定义序号(三位数字)
 例如</t>
   </si>
   <si>
@@ -305,8 +305,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
@@ -322,104 +322,6 @@
       <sz val="10"/>
       <name val="宋体"/>
       <charset val="0"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <i/>
@@ -440,7 +342,14 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -448,12 +357,103 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -483,6 +483,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -495,31 +501,145 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -531,139 +651,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -692,6 +692,41 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -703,6 +738,21 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -739,56 +789,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -797,10 +797,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -809,133 +809,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="24" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1336,10 +1336,10 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:U2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="D54" sqref="D54"/>
+      <selection pane="bottomLeft" activeCell="Q16" sqref="Q16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1"/>
@@ -1507,8 +1507,8 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:U41"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="U8" sqref="U8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="T8" sqref="T8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
